--- a/data/inputs/lci_moeschberg.xlsx
+++ b/data/inputs/lci_moeschberg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\GitHub\moeschpond\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL268686\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="foreground" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="42">
   <si>
     <t>Database</t>
   </si>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,11 +501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.88671875" customWidth="1"/>
   </cols>
@@ -645,9 +645,8 @@
         <f>E23</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="F12" t="str">
-        <f>F23</f>
-        <v>production</v>
+      <c r="F12" t="s">
+        <v>15</v>
       </c>
       <c r="G12" t="str">
         <f>G23</f>
@@ -853,9 +852,8 @@
         <f t="shared" ref="E26:G26" si="2">E36</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="2"/>
-        <v>production</v>
+      <c r="F26" t="s">
+        <v>15</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
@@ -1333,9 +1331,8 @@
         <f t="shared" si="7"/>
         <v>kilowatt hour</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="7"/>
-        <v>production</v>
+      <c r="F63" t="s">
+        <v>15</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="7"/>
@@ -1362,9 +1359,8 @@
         <f t="shared" si="8"/>
         <v>megajoule</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" si="8"/>
-        <v>production</v>
+      <c r="F64" t="s">
+        <v>15</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="8"/>

--- a/data/inputs/lci_moeschberg.xlsx
+++ b/data/inputs/lci_moeschberg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="45">
   <si>
     <t>Database</t>
   </si>
@@ -145,13 +145,22 @@
   </si>
   <si>
     <t>energy demand, operational, Hotel Moeschberg</t>
+  </si>
+  <si>
+    <t>heat supply, Hotel Moeschberg, 2021, natural gas boiler</t>
+  </si>
+  <si>
+    <t>heat production, natural gas, at boiler condensing modulating &lt;100kW</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, natural gas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +171,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -188,13 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,161 +1230,303 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="str">
-        <f>B54</f>
-        <v>energy demand, operational, Hotel Moeschberg</v>
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
         <v>6</v>
       </c>
-      <c r="B58" t="s">
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <f>B54</f>
+        <v>heat supply, Hotel Moeschberg, 2021, natural gas boiler</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" ref="C61" si="5">$B$1</f>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D61" t="str">
+        <f>B55</f>
+        <v>CH</v>
+      </c>
+      <c r="E61" t="str">
+        <f>B58</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="str">
+        <f>B56</f>
+        <v>heat, Hotel Moeschberg</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>4.6680000000000003E-3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="str">
+        <f>B65</f>
+        <v>energy demand, operational, Hotel Moeschberg</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>8</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C72" t="s">
         <v>13</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D72" t="s">
         <v>4</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E72" t="s">
         <v>8</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F72" t="s">
         <v>6</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="str">
-        <f>B54</f>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <f>B65</f>
         <v>energy demand, operational, Hotel Moeschberg</v>
       </c>
-      <c r="B62">
+      <c r="B73">
         <v>1</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" ref="C62" si="5">$B$1</f>
+      <c r="C73" t="str">
+        <f t="shared" ref="C73" si="6">$B$1</f>
         <v>energy_moeschberg</v>
       </c>
-      <c r="D62" t="str">
-        <f>B56</f>
+      <c r="D73" t="str">
+        <f>B67</f>
         <v>CH</v>
       </c>
-      <c r="E62" t="str">
-        <f>B59</f>
+      <c r="E73" t="str">
+        <f>B70</f>
         <v>unit</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F73" t="s">
         <v>14</v>
       </c>
-      <c r="G62" t="str">
-        <f>B57</f>
+      <c r="G73" t="str">
+        <f>B68</f>
         <v>energy demand, operational, Hotel Moeschberg</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="str">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
         <f>A11</f>
         <v>electricity supply, Hotel Moeschberg, 2021</v>
       </c>
-      <c r="B63">
+      <c r="B74">
         <v>32179</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" ref="C63:C64" si="6">$B$1</f>
+      <c r="C74" t="str">
+        <f t="shared" ref="C74:C75" si="7">$B$1</f>
         <v>energy_moeschberg</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" ref="D63:G63" si="7">D11</f>
+      <c r="D74" t="str">
+        <f t="shared" ref="D74:G74" si="8">D11</f>
         <v>CH</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="7"/>
+      <c r="E74" t="str">
+        <f t="shared" si="8"/>
         <v>kilowatt hour</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="7"/>
+      <c r="F74" t="str">
+        <f t="shared" si="8"/>
         <v>production</v>
       </c>
-      <c r="G63" t="str">
-        <f t="shared" si="7"/>
+      <c r="G74" t="str">
+        <f t="shared" si="8"/>
         <v>electricity, low voltage</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="str">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
         <f>A50</f>
         <v>heat supply, Hotel Moeschberg, 2021</v>
       </c>
-      <c r="B64">
+      <c r="B75">
         <v>655489</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" si="6"/>
+      <c r="C75" t="str">
+        <f t="shared" si="7"/>
         <v>energy_moeschberg</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" ref="D64:G64" si="8">D50</f>
+      <c r="D75" t="str">
+        <f t="shared" ref="D75:G75" si="9">D50</f>
         <v>CH</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="8"/>
+      <c r="E75" t="str">
+        <f t="shared" si="9"/>
         <v>megajoule</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" si="8"/>
+      <c r="F75" t="str">
+        <f t="shared" si="9"/>
         <v>production</v>
       </c>
-      <c r="G64" t="str">
-        <f t="shared" si="8"/>
+      <c r="G75" t="str">
+        <f t="shared" si="9"/>
         <v>heat, Hotel Moeschberg</v>
       </c>
     </row>

--- a/data/inputs/lci_moeschberg.xlsx
+++ b/data/inputs/lci_moeschberg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
   <si>
     <t>Database</t>
   </si>
@@ -138,13 +138,16 @@
     <t>heat supply, Hotel Moeschberg, 2021</t>
   </si>
   <si>
-    <t>heat production, wood pellet, at furnace 25kW, state-of-the-art 2014</t>
-  </si>
-  <si>
     <t>heat, Hotel Moeschberg</t>
   </si>
   <si>
     <t>energy demand, operational, Hotel Moeschberg</t>
+  </si>
+  <si>
+    <t>wood pellets, burned in stirling heat and power co-generation unit, 3kW electrical, future</t>
+  </si>
+  <si>
+    <t>heat, future</t>
   </si>
 </sst>
 </file>
@@ -188,12 +191,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,13 +507,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="87.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1085,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1184,8 +1190,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>39</v>
+      <c r="A52" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B52">
         <v>0.99529999999999996</v>
@@ -1203,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1211,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">

--- a/data/inputs/lci_moeschberg.xlsx
+++ b/data/inputs/lci_moeschberg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="foreground" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="46">
   <si>
     <t>Database</t>
   </si>
@@ -138,16 +138,25 @@
     <t>heat supply, Hotel Moeschberg, 2021</t>
   </si>
   <si>
+    <t>heat production, wood pellet, at furnace 25kW, state-of-the-art 2014</t>
+  </si>
+  <si>
     <t>heat, Hotel Moeschberg</t>
   </si>
   <si>
     <t>energy demand, operational, Hotel Moeschberg</t>
   </si>
   <si>
-    <t>wood pellets, burned in stirling heat and power co-generation unit, 3kW electrical, future</t>
-  </si>
-  <si>
-    <t>heat, future</t>
+    <t>electricity supply, Hotel Moeschberg, 2021, new PV LCI</t>
+  </si>
+  <si>
+    <t>Electricity production, 3kWp multi-Si photovoltaic panel slanted-roof installation</t>
+  </si>
+  <si>
+    <t>solar_huimin</t>
+  </si>
+  <si>
+    <t>CN</t>
   </si>
 </sst>
 </file>
@@ -191,15 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -633,7 +639,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>A23</f>
+        <f>A36</f>
         <v>electricity supply, Energie Grosshoechstetten AG, 2021, guarantees of origin</v>
       </c>
       <c r="B12">
@@ -644,18 +650,18 @@
         <v>energy_moeschberg</v>
       </c>
       <c r="D12" t="str">
-        <f>D23</f>
+        <f>D36</f>
         <v>CH</v>
       </c>
       <c r="E12" t="str">
-        <f>E23</f>
+        <f>E36</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="str">
-        <f>G23</f>
+        <f>G36</f>
         <v>electricity, low voltage</v>
       </c>
       <c r="H12" t="s">
@@ -693,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -701,10 +707,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -712,7 +718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -720,7 +726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -728,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -736,12 +742,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -763,44 +769,43 @@
       <c r="G22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>B15</f>
-        <v>electricity supply, Energie Grosshoechstetten AG, 2021, guarantees of origin</v>
+        <v>electricity supply, Hotel Moeschberg, 2021, new PV LCI</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" ref="C23:C26" si="1">$B$1</f>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D23" t="str">
-        <f>B17</f>
-        <v>CH</v>
-      </c>
-      <c r="E23" t="str">
-        <f>B20</f>
-        <v>kilowatt hour</v>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" t="str">
-        <f>B18</f>
-        <v>electricity, low voltage</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>0.90700000000000003</v>
+        <v>0.55940000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -812,21 +817,24 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>2.5999999999999999E-2</v>
+        <v>0.44059999999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -834,55 +842,27 @@
       <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
-        <f>A36</f>
-        <v>electricity, subsidised, 2021</v>
-      </c>
-      <c r="B26">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D26" t="str">
-        <f>D36</f>
-        <v>CH</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" ref="E26:G26" si="2">E36</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>electricity, low voltage</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -890,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -898,7 +878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -945,13 +925,13 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>B28</f>
-        <v>electricity, subsidised, 2021</v>
+        <v>electricity supply, Energie Grosshoechstetten AG, 2021, guarantees of origin</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36" si="3">$B$1</f>
+        <f t="shared" ref="C36:C39" si="1">$B$1</f>
         <v>energy_moeschberg</v>
       </c>
       <c r="D36" t="str">
@@ -975,7 +955,7 @@
         <v>20</v>
       </c>
       <c r="B37">
-        <v>0.32</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C37" t="s">
         <v>36</v>
@@ -998,7 +978,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>0.46</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
@@ -1017,161 +997,166 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>28</v>
+      <c r="A39" t="str">
+        <f>A49</f>
+        <v>electricity, subsidised, 2021</v>
       </c>
       <c r="B39">
-        <v>0.02</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D39" t="str">
+        <f>D49</f>
+        <v>CH</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ref="E39:G39" si="2">E49</f>
+        <v>kilowatt hour</v>
       </c>
       <c r="F39" t="s">
         <v>15</v>
       </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>38</v>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
         <v>6</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>10</v>
+      <c r="G48" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
+      <c r="A49" t="str">
+        <f>B41</f>
+        <v>electricity, subsidised, 2021</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ref="C49" si="3">$B$1</f>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D49" t="str">
+        <f>B43</f>
+        <v>CH</v>
+      </c>
+      <c r="E49" t="str">
+        <f>B46</f>
+        <v>kilowatt hour</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="G49" t="str">
+        <f>B44</f>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
-        <f>B42</f>
-        <v>heat supply, Hotel Moeschberg, 2021</v>
+      <c r="A50" t="s">
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" ref="C50" si="4">$B$1</f>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D50" t="str">
-        <f>B44</f>
-        <v>CH</v>
-      </c>
-      <c r="E50" t="str">
-        <f>B47</f>
-        <v>megajoule</v>
+        <v>0.32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="str">
-        <f>B45</f>
-        <v>heat, Hotel Moeschberg</v>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>4.6680000000000003E-3</v>
+        <v>0.46</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
@@ -1180,21 +1165,21 @@
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>41</v>
+      <c r="A52" t="s">
+        <v>28</v>
       </c>
       <c r="B52">
-        <v>0.99529999999999996</v>
+        <v>0.02</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
@@ -1203,172 +1188,345 @@
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>26</v>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="str">
-        <f>B54</f>
-        <v>energy demand, operational, Hotel Moeschberg</v>
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>8</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>6</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="str">
-        <f>B54</f>
-        <v>energy demand, operational, Hotel Moeschberg</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" ref="C62" si="5">$B$1</f>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D62" t="str">
-        <f>B56</f>
-        <v>CH</v>
-      </c>
-      <c r="E62" t="str">
-        <f>B59</f>
-        <v>unit</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="str">
-        <f>B57</f>
-        <v>energy demand, operational, Hotel Moeschberg</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
+        <f>B55</f>
+        <v>heat supply, Hotel Moeschberg, 2021</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" ref="C63" si="4">$B$1</f>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D63" t="str">
+        <f>B57</f>
+        <v>CH</v>
+      </c>
+      <c r="E63" t="str">
+        <f>B60</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="str">
+        <f>B58</f>
+        <v>heat, Hotel Moeschberg</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>4.6680000000000003E-3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="str">
+        <f>B67</f>
+        <v>energy demand, operational, Hotel Moeschberg</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <f>B67</f>
+        <v>energy demand, operational, Hotel Moeschberg</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ref="C75" si="5">$B$1</f>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D75" t="str">
+        <f>B69</f>
+        <v>CH</v>
+      </c>
+      <c r="E75" t="str">
+        <f>B72</f>
+        <v>unit</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="str">
+        <f>B70</f>
+        <v>energy demand, operational, Hotel Moeschberg</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
         <f>A11</f>
         <v>electricity supply, Hotel Moeschberg, 2021</v>
       </c>
-      <c r="B63">
+      <c r="B76">
         <v>32179</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" ref="C63:C64" si="6">$B$1</f>
+      <c r="C76" t="str">
+        <f t="shared" ref="C76:C77" si="6">$B$1</f>
         <v>energy_moeschberg</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" ref="D63:G63" si="7">D11</f>
+      <c r="D76" t="str">
+        <f t="shared" ref="D76:G76" si="7">D11</f>
         <v>CH</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E76" t="str">
         <f t="shared" si="7"/>
         <v>kilowatt hour</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F76" t="s">
         <v>15</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G76" t="str">
         <f t="shared" si="7"/>
         <v>electricity, low voltage</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="str">
-        <f>A50</f>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <f>A63</f>
         <v>heat supply, Hotel Moeschberg, 2021</v>
       </c>
-      <c r="B64">
+      <c r="B77">
         <v>655489</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C77" t="str">
         <f t="shared" si="6"/>
         <v>energy_moeschberg</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" ref="D64:G64" si="8">D50</f>
+      <c r="D77" t="str">
+        <f t="shared" ref="D77:G77" si="8">D63</f>
         <v>CH</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E77" t="str">
         <f t="shared" si="8"/>
         <v>megajoule</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F77" t="s">
         <v>15</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G77" t="str">
         <f t="shared" si="8"/>
         <v>heat, Hotel Moeschberg</v>
       </c>

--- a/data/inputs/lci_moeschberg.xlsx
+++ b/data/inputs/lci_moeschberg.xlsx
@@ -511,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>A36</f>
+        <f>A35</f>
         <v>electricity supply, Energie Grosshoechstetten AG, 2021, guarantees of origin</v>
       </c>
       <c r="B12">
@@ -650,18 +650,18 @@
         <v>energy_moeschberg</v>
       </c>
       <c r="D12" t="str">
-        <f>D36</f>
+        <f>D35</f>
         <v>CH</v>
       </c>
       <c r="E12" t="str">
-        <f>E36</f>
+        <f>E35</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="str">
-        <f>G36</f>
+        <f>G35</f>
         <v>electricity, low voltage</v>
       </c>
       <c r="H12" t="s">
@@ -704,82 +704,97 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+      <c r="A22" t="str">
         <f>B15</f>
         <v>electricity supply, Hotel Moeschberg, 2021, new PV LCI</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.55940000000000001</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -791,24 +806,27 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
       </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>0.55940000000000001</v>
+        <v>0.44059999999999999</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -816,149 +834,146 @@
       <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
       <c r="H24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>B27</f>
+        <v>electricity supply, Energie Grosshoechstetten AG, 2021, guarantees of origin</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" ref="C35:C38" si="1">$B$1</f>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D35" t="str">
+        <f>B29</f>
+        <v>CH</v>
+      </c>
+      <c r="E35" t="str">
+        <f>B32</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="str">
+        <f>B30</f>
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <f>B28</f>
-        <v>electricity supply, Energie Grosshoechstetten AG, 2021, guarantees of origin</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" ref="C36:C39" si="1">$B$1</f>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D36" t="str">
-        <f>B30</f>
-        <v>CH</v>
-      </c>
-      <c r="E36" t="str">
-        <f>B33</f>
-        <v>kilowatt hour</v>
-      </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="str">
-        <f>B31</f>
-        <v>electricity, low voltage</v>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>0.90700000000000003</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -970,173 +985,173 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>16</v>
+      <c r="A38" t="str">
+        <f>A48</f>
+        <v>electricity, subsidised, 2021</v>
       </c>
       <c r="B38">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D38" t="str">
+        <f>D48</f>
+        <v>CH</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ref="E38:G38" si="2">E48</f>
+        <v>kilowatt hour</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <f>A49</f>
-        <v>electricity, subsidised, 2021</v>
-      </c>
-      <c r="B39">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D39" t="str">
-        <f>D49</f>
-        <v>CH</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" ref="E39:G39" si="2">E49</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="2"/>
         <v>electricity, low voltage</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
         <v>6</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f>B40</f>
+        <v>electricity, subsidised, 2021</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" ref="C48" si="3">$B$1</f>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D48" t="str">
+        <f>B42</f>
+        <v>CH</v>
+      </c>
+      <c r="E48" t="str">
+        <f>B45</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="str">
+        <f>B43</f>
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>0.32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="str">
-        <f>B41</f>
-        <v>electricity, subsidised, 2021</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" ref="C49" si="3">$B$1</f>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D49" t="str">
-        <f>B43</f>
-        <v>CH</v>
-      </c>
-      <c r="E49" t="str">
-        <f>B46</f>
-        <v>kilowatt hour</v>
-      </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="str">
-        <f>B44</f>
-        <v>electricity, low voltage</v>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B50">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -1148,15 +1163,15 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
@@ -1171,15 +1186,15 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52">
-        <v>0.02</v>
+        <v>29</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.2</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
@@ -1197,139 +1212,139 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="G61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <f>B54</f>
+        <v>heat supply, Hotel Moeschberg, 2021</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" ref="C62" si="4">$B$1</f>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D62" t="str">
+        <f>B56</f>
+        <v>CH</v>
+      </c>
+      <c r="E62" t="str">
+        <f>B59</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="str">
+        <f>B57</f>
+        <v>heat, Hotel Moeschberg</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>4.6680000000000003E-3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="str">
-        <f>B55</f>
-        <v>heat supply, Hotel Moeschberg, 2021</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" ref="C63" si="4">$B$1</f>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D63" t="str">
-        <f>B57</f>
-        <v>CH</v>
-      </c>
-      <c r="E63" t="str">
-        <f>B60</f>
-        <v>megajoule</v>
-      </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="str">
-        <f>B58</f>
-        <v>heat, Hotel Moeschberg</v>
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>24</v>
+      <c r="A64" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B64">
-        <v>4.6680000000000003E-3</v>
+        <v>0.99529999999999996</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
@@ -1343,191 +1358,166 @@
       <c r="F64" t="s">
         <v>15</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65">
-        <v>0.99529999999999996</v>
-      </c>
-      <c r="C65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B69" t="str">
+        <f>B66</f>
+        <v>energy demand, operational, Hotel Moeschberg</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="str">
-        <f>B67</f>
-        <v>energy demand, operational, Hotel Moeschberg</v>
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
         <v>6</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>10</v>
+      <c r="G73" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
+      <c r="A74" t="str">
+        <f>B66</f>
+        <v>energy demand, operational, Hotel Moeschberg</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" ref="C74" si="5">$B$1</f>
+        <v>energy_moeschberg</v>
+      </c>
+      <c r="D74" t="str">
+        <f>B68</f>
+        <v>CH</v>
+      </c>
+      <c r="E74" t="str">
+        <f>B71</f>
+        <v>unit</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="G74" t="str">
+        <f>B69</f>
+        <v>energy demand, operational, Hotel Moeschberg</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="str">
-        <f>B67</f>
-        <v>energy demand, operational, Hotel Moeschberg</v>
+      <c r="A75" t="s">
+        <v>42</v>
       </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" ref="C75" si="5">$B$1</f>
-        <v>energy_moeschberg</v>
+        <v>32179</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
       </c>
       <c r="D75" t="str">
-        <f>B69</f>
+        <f>D11</f>
         <v>CH</v>
       </c>
       <c r="E75" t="str">
-        <f>B72</f>
-        <v>unit</v>
+        <f>E11</f>
+        <v>kilowatt hour</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G75" t="str">
-        <f>B70</f>
-        <v>energy demand, operational, Hotel Moeschberg</v>
+        <f>G11</f>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f>A11</f>
-        <v>electricity supply, Hotel Moeschberg, 2021</v>
+        <f>A62</f>
+        <v>heat supply, Hotel Moeschberg, 2021</v>
       </c>
       <c r="B76">
-        <v>32179</v>
+        <v>655489</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" ref="C76:C77" si="6">$B$1</f>
+        <f t="shared" ref="C75:C76" si="6">$B$1</f>
         <v>energy_moeschberg</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" ref="D76:G76" si="7">D11</f>
+        <f t="shared" ref="D76:G76" si="7">D62</f>
         <v>CH</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="7"/>
-        <v>kilowatt hour</v>
+        <v>megajoule</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="7"/>
-        <v>electricity, low voltage</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="str">
-        <f>A63</f>
-        <v>heat supply, Hotel Moeschberg, 2021</v>
-      </c>
-      <c r="B77">
-        <v>655489</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="6"/>
-        <v>energy_moeschberg</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" ref="D77:G77" si="8">D63</f>
-        <v>CH</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="8"/>
-        <v>megajoule</v>
-      </c>
-      <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="8"/>
         <v>heat, Hotel Moeschberg</v>
       </c>
     </row>
